--- a/server/file_export/file_extract.xlsx
+++ b/server/file_export/file_extract.xlsx
@@ -641,12 +641,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>800</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>วันอังคาร</t>
+          <t>วันจันทร์</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1305/1</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -689,17 +689,17 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>830</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>วันอังคาร</t>
+          <t>วันจันทร์</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -709,12 +709,12 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1305/3</t>
+          <t>1305/1</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A,B</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>801</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -794,67 +794,19 @@
           <t>50</t>
         </is>
       </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>830</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>วันจันทร์</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>Wow</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>1301</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>T12/3-4</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>Wow</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A,B</t>
         </is>
       </c>
     </row>
